--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_23_21.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_23_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>768159.7106630162</v>
+        <v>765738.2453499064</v>
       </c>
     </row>
     <row r="7">
@@ -656,16 +656,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>24.6214982250928</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>291.9220336059075</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>203.9179701396201</v>
@@ -719,7 +719,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -756,7 +756,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>190.0182967731494</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>61.36917500887012</v>
       </c>
     </row>
     <row r="5">
@@ -896,7 +896,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -908,7 +908,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>407.8895948559962</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>74.55828483826195</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1057,10 +1057,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>38.95060369704281</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>121.8713578254458</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1133,19 +1133,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>104.8610167379476</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -1184,19 +1184,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>270.5139490778472</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>117.7126336312586</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1339,22 +1339,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>47.38664856090042</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>150.1682963564575</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1382,13 +1382,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.2160107437958</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>177.650465436776</v>
       </c>
       <c r="I11" t="n">
-        <v>14.3698557183489</v>
+        <v>14.36985571834882</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.10628328435183</v>
+        <v>93.10628328435179</v>
       </c>
       <c r="T11" t="n">
         <v>200.8287031225937</v>
@@ -1467,7 +1467,7 @@
         <v>85.95014355551388</v>
       </c>
       <c r="I12" t="n">
-        <v>5.816834883872261</v>
+        <v>5.816834883872232</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1531,13 +1531,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>74.69849031983846</v>
+        <v>74.69849031983843</v>
       </c>
       <c r="S13" t="n">
         <v>184.2522581002752</v>
@@ -1582,16 +1582,16 @@
         <v>218.196377237229</v>
       </c>
       <c r="U13" t="n">
-        <v>235.7938950355616</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>198.4170800104096</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1607,13 +1607,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>314.9813656337147</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>331.6388439349722</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.61259060081962</v>
+        <v>84.61259060081966</v>
       </c>
       <c r="T14" t="n">
         <v>199.1970568374742</v>
@@ -1701,7 +1701,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H15" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>7.018581172448061</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T16" t="n">
         <v>217.4819944627618</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>103.1714890340827</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -2014,13 +2014,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>20.92847288552881</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>34.67929910923772</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2135,7 +2135,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881277</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2239,25 +2239,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>120.7871326503964</v>
       </c>
       <c r="H22" t="n">
-        <v>74.9633779348799</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2485,16 +2485,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>19.91555826189108</v>
       </c>
       <c r="G25" t="n">
-        <v>52.1064554151415</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2710,19 +2710,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>52.10645541514143</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740339</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520954</v>
       </c>
     </row>
     <row r="29">
@@ -2801,13 +2801,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2950,13 +2950,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>20.43112068613149</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2968,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3010,7 +3010,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>241.7859926947193</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833785</v>
       </c>
       <c r="G34" t="n">
-        <v>61.44013021076805</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3421,22 +3421,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>136.1078891637031</v>
+        <v>99.97427419833863</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3661,13 +3661,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3676,10 +3676,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>0.8253826161909023</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>33.55293486399925</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3806,7 +3806,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="42">
@@ -3904,16 +3904,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>13.7258286485376</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3961,7 +3961,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4138,22 +4138,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>27.02919805176081</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>83.06560892428134</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4304,13 +4304,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1914.669427940025</v>
+        <v>1647.321240915451</v>
       </c>
       <c r="C2" t="n">
-        <v>1545.706910999613</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="D2" t="n">
-        <v>1187.441212392863</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E2" t="n">
         <v>892.5704713767946</v>
@@ -4319,61 +4319,61 @@
         <v>481.5845665871869</v>
       </c>
       <c r="G2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U2" t="n">
-        <v>3009.337405520487</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="V2" t="n">
-        <v>2678.274518176916</v>
+        <v>2788.565186649823</v>
       </c>
       <c r="W2" t="n">
-        <v>2678.274518176916</v>
+        <v>2435.796531379709</v>
       </c>
       <c r="X2" t="n">
-        <v>2304.808759915837</v>
+        <v>2062.330773118629</v>
       </c>
       <c r="Y2" t="n">
-        <v>1914.669427940025</v>
+        <v>1672.191441142817</v>
       </c>
     </row>
     <row r="3">
@@ -4383,31 +4383,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
         <v>398.4535849031479</v>
@@ -4440,7 +4440,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4449,10 +4449,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L4" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S4" t="n">
-        <v>729.2011216450112</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="T4" t="n">
-        <v>537.2634481367795</v>
+        <v>417.6040489720652</v>
       </c>
       <c r="U4" t="n">
-        <v>248.1605812624231</v>
+        <v>128.5011820977088</v>
       </c>
       <c r="V4" t="n">
-        <v>248.1605812624231</v>
+        <v>128.5011820977088</v>
       </c>
       <c r="W4" t="n">
-        <v>248.1605812624231</v>
+        <v>128.5011820977088</v>
       </c>
       <c r="X4" t="n">
-        <v>248.1605812624231</v>
+        <v>128.5011820977088</v>
       </c>
       <c r="Y4" t="n">
-        <v>248.1605812624231</v>
+        <v>66.51211643218343</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1941.127034633561</v>
+        <v>1569.101759311879</v>
       </c>
       <c r="C5" t="n">
-        <v>1572.164517693149</v>
+        <v>1569.101759311879</v>
       </c>
       <c r="D5" t="n">
-        <v>1213.898819086399</v>
+        <v>1210.836060705129</v>
       </c>
       <c r="E5" t="n">
-        <v>828.1105664881544</v>
+        <v>825.0478081068845</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>818.1023073576811</v>
       </c>
       <c r="G5" t="n">
         <v>406.0926155839475</v>
@@ -4565,7 +4565,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810553</v>
@@ -4577,10 +4577,10 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
         <v>3018.302393296686</v>
@@ -4592,25 +4592,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V5" t="n">
-        <v>2680.495529967797</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="W5" t="n">
-        <v>2327.726874697682</v>
+        <v>2719.306689612893</v>
       </c>
       <c r="X5" t="n">
-        <v>2327.726874697682</v>
+        <v>2345.840931351813</v>
       </c>
       <c r="Y5" t="n">
-        <v>2327.726874697682</v>
+        <v>1955.701599376001</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>461.8675266085669</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C7" t="n">
-        <v>461.8675266085669</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D7" t="n">
-        <v>311.7508871962312</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218342</v>
@@ -4747,28 +4747,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>881.5429616797578</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S7" t="n">
-        <v>689.8570775065842</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="T7" t="n">
-        <v>689.8570775065842</v>
+        <v>417.6040489720652</v>
       </c>
       <c r="U7" t="n">
-        <v>689.8570775065842</v>
+        <v>294.5016673302007</v>
       </c>
       <c r="V7" t="n">
-        <v>689.8570775065842</v>
+        <v>294.5016673302007</v>
       </c>
       <c r="W7" t="n">
-        <v>689.8570775065842</v>
+        <v>294.5016673302007</v>
       </c>
       <c r="X7" t="n">
-        <v>461.8675266085669</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="Y7" t="n">
-        <v>461.8675266085669</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1681.836054204827</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="C8" t="n">
-        <v>1312.873537264415</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D8" t="n">
-        <v>1312.873537264415</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>927.0852846661708</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4799,13 +4799,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4826,28 +4826,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450753</v>
+        <v>2688.538263200155</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180638</v>
+        <v>2335.769607930041</v>
       </c>
       <c r="X8" t="n">
-        <v>2071.975386180638</v>
+        <v>1962.303849668961</v>
       </c>
       <c r="Y8" t="n">
-        <v>1681.836054204827</v>
+        <v>1572.164517693149</v>
       </c>
     </row>
     <row r="9">
@@ -4857,37 +4857,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158133</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4914,7 +4914,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,34 +4936,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>66.5121164321834</v>
+        <v>185.4137665647679</v>
       </c>
       <c r="C10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L10" t="n">
         <v>332.3555681596505</v>
@@ -4987,25 +4987,25 @@
         <v>920.8870058181849</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181849</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="T10" t="n">
-        <v>873.0217042415178</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="U10" t="n">
-        <v>583.9188373671614</v>
+        <v>440.0982547706548</v>
       </c>
       <c r="V10" t="n">
-        <v>583.9188373671614</v>
+        <v>185.4137665647679</v>
       </c>
       <c r="W10" t="n">
-        <v>294.5016673302007</v>
+        <v>185.4137665647679</v>
       </c>
       <c r="X10" t="n">
-        <v>66.5121164321834</v>
+        <v>185.4137665647679</v>
       </c>
       <c r="Y10" t="n">
-        <v>66.5121164321834</v>
+        <v>185.4137665647679</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2036.598949648362</v>
+        <v>1801.684257419049</v>
       </c>
       <c r="C11" t="n">
-        <v>1667.63643270795</v>
+        <v>1432.721740478637</v>
       </c>
       <c r="D11" t="n">
-        <v>1309.3707341012</v>
+        <v>1074.456041871887</v>
       </c>
       <c r="E11" t="n">
-        <v>923.5824815029553</v>
+        <v>688.6677892736425</v>
       </c>
       <c r="F11" t="n">
-        <v>512.5965767133478</v>
+        <v>277.6818844840349</v>
       </c>
       <c r="G11" t="n">
-        <v>98.23696990143287</v>
+        <v>277.6818844840349</v>
       </c>
       <c r="H11" t="n">
-        <v>98.23696990143287</v>
+        <v>98.23696990143284</v>
       </c>
       <c r="I11" t="n">
-        <v>83.72196412532287</v>
+        <v>83.72196412532293</v>
       </c>
       <c r="J11" t="n">
         <v>331.8987991897698</v>
       </c>
       <c r="K11" t="n">
-        <v>754.5900599895884</v>
+        <v>754.5900599895886</v>
       </c>
       <c r="L11" t="n">
         <v>1315.877707787741</v>
       </c>
       <c r="M11" t="n">
-        <v>1972.087801958787</v>
+        <v>1972.087801958788</v>
       </c>
       <c r="N11" t="n">
-        <v>2643.529869878885</v>
+        <v>2643.529869878886</v>
       </c>
       <c r="O11" t="n">
-        <v>3264.218313512958</v>
+        <v>3264.21831351296</v>
       </c>
       <c r="P11" t="n">
-        <v>3759.460539161021</v>
+        <v>3759.460539161024</v>
       </c>
       <c r="Q11" t="n">
-        <v>4083.194079157495</v>
+        <v>4083.194079157498</v>
       </c>
       <c r="R11" t="n">
-        <v>4186.098206266143</v>
+        <v>4186.098206266146</v>
       </c>
       <c r="S11" t="n">
-        <v>4092.051455473869</v>
+        <v>4092.051455473872</v>
       </c>
       <c r="T11" t="n">
-        <v>3889.194179592461</v>
+        <v>3889.194179592464</v>
       </c>
       <c r="U11" t="n">
-        <v>3635.720730333744</v>
+        <v>3635.720730333747</v>
       </c>
       <c r="V11" t="n">
-        <v>3304.657842990173</v>
+        <v>3304.657842990177</v>
       </c>
       <c r="W11" t="n">
-        <v>2951.889187720059</v>
+        <v>2951.889187720062</v>
       </c>
       <c r="X11" t="n">
-        <v>2578.423429458979</v>
+        <v>2578.423429458982</v>
       </c>
       <c r="Y11" t="n">
-        <v>2188.284097483167</v>
+        <v>2188.284097483171</v>
       </c>
     </row>
     <row r="12">
@@ -5112,31 +5112,31 @@
         <v>176.4158817408644</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59755491711303</v>
+        <v>89.59755491711306</v>
       </c>
       <c r="I12" t="n">
-        <v>83.72196412532287</v>
+        <v>83.72196412532293</v>
       </c>
       <c r="J12" t="n">
-        <v>212.7165399511882</v>
+        <v>212.7165399511883</v>
       </c>
       <c r="K12" t="n">
-        <v>511.3436407162632</v>
+        <v>511.3436407162635</v>
       </c>
       <c r="L12" t="n">
-        <v>511.3436407162632</v>
+        <v>833.2286115166427</v>
       </c>
       <c r="M12" t="n">
-        <v>1053.336125215645</v>
+        <v>1375.221096016024</v>
       </c>
       <c r="N12" t="n">
-        <v>1624.082182946501</v>
+        <v>1945.967153746881</v>
       </c>
       <c r="O12" t="n">
-        <v>2123.983526278403</v>
+        <v>1945.967153746881</v>
       </c>
       <c r="P12" t="n">
-        <v>2505.865360139912</v>
+        <v>2327.84898760839</v>
       </c>
       <c r="Q12" t="n">
         <v>2533.207683901341</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>528.6416446179621</v>
+        <v>83.72196412532293</v>
       </c>
       <c r="C13" t="n">
-        <v>528.6416446179621</v>
+        <v>83.72196412532293</v>
       </c>
       <c r="D13" t="n">
-        <v>378.5250052056264</v>
+        <v>83.72196412532293</v>
       </c>
       <c r="E13" t="n">
-        <v>230.6119116232333</v>
+        <v>83.72196412532293</v>
       </c>
       <c r="F13" t="n">
-        <v>83.72196412532287</v>
+        <v>83.72196412532293</v>
       </c>
       <c r="G13" t="n">
-        <v>83.72196412532287</v>
+        <v>83.72196412532293</v>
       </c>
       <c r="H13" t="n">
-        <v>83.72196412532287</v>
+        <v>83.72196412532293</v>
       </c>
       <c r="I13" t="n">
-        <v>83.72196412532287</v>
+        <v>83.72196412532293</v>
       </c>
       <c r="J13" t="n">
-        <v>117.7016606826975</v>
+        <v>117.7016606826978</v>
       </c>
       <c r="K13" t="n">
-        <v>252.4231786760679</v>
+        <v>252.4231786760683</v>
       </c>
       <c r="L13" t="n">
-        <v>454.7261364145519</v>
+        <v>454.7261364145527</v>
       </c>
       <c r="M13" t="n">
-        <v>671.2845233962415</v>
+        <v>671.2845233962425</v>
       </c>
       <c r="N13" t="n">
-        <v>890.5511618732495</v>
+        <v>890.5511618732506</v>
       </c>
       <c r="O13" t="n">
-        <v>1072.766302922987</v>
+        <v>1072.766302922989</v>
       </c>
       <c r="P13" t="n">
-        <v>1209.620863594894</v>
+        <v>1209.620863594896</v>
       </c>
       <c r="Q13" t="n">
-        <v>1248.78408976231</v>
+        <v>1248.784089762311</v>
       </c>
       <c r="R13" t="n">
-        <v>1173.331069237221</v>
+        <v>1173.331069237222</v>
       </c>
       <c r="S13" t="n">
-        <v>987.2176772167406</v>
+        <v>987.2176772167418</v>
       </c>
       <c r="T13" t="n">
-        <v>766.8172961690344</v>
+        <v>766.8172961690348</v>
       </c>
       <c r="U13" t="n">
-        <v>528.6416446179621</v>
+        <v>766.8172961690348</v>
       </c>
       <c r="V13" t="n">
-        <v>528.6416446179621</v>
+        <v>512.1328079631479</v>
       </c>
       <c r="W13" t="n">
-        <v>528.6416446179621</v>
+        <v>311.7115150233403</v>
       </c>
       <c r="X13" t="n">
-        <v>528.6416446179621</v>
+        <v>83.72196412532293</v>
       </c>
       <c r="Y13" t="n">
-        <v>528.6416446179621</v>
+        <v>83.72196412532293</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2266.424947555046</v>
+        <v>2266.424947555043</v>
       </c>
       <c r="C14" t="n">
-        <v>1897.462430614635</v>
+        <v>1948.261951965432</v>
       </c>
       <c r="D14" t="n">
-        <v>1539.196732007884</v>
+        <v>1589.996253358682</v>
       </c>
       <c r="E14" t="n">
         <v>1204.208000760437</v>
       </c>
       <c r="F14" t="n">
-        <v>793.22209597083</v>
+        <v>793.2220959708297</v>
       </c>
       <c r="G14" t="n">
-        <v>379.2389888872365</v>
+        <v>379.2389888872364</v>
       </c>
       <c r="H14" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="I14" t="n">
-        <v>92.81162322608057</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="J14" t="n">
-        <v>372.3074987251948</v>
+        <v>372.3074987251932</v>
       </c>
       <c r="K14" t="n">
-        <v>841.9378825128779</v>
+        <v>841.9378825128749</v>
       </c>
       <c r="L14" t="n">
-        <v>1461.457663018653</v>
+        <v>1461.457663018648</v>
       </c>
       <c r="M14" t="n">
-        <v>2182.462224957691</v>
+        <v>2182.462224957686</v>
       </c>
       <c r="N14" t="n">
-        <v>2919.747202874796</v>
+        <v>2919.747202874792</v>
       </c>
       <c r="O14" t="n">
-        <v>3602.609239333935</v>
+        <v>3602.60923933393</v>
       </c>
       <c r="P14" t="n">
-        <v>4150.915188021283</v>
+        <v>4150.915188021278</v>
       </c>
       <c r="Q14" t="n">
-        <v>4514.49737412729</v>
+        <v>4514.497374127286</v>
       </c>
       <c r="R14" t="n">
-        <v>4640.581161304028</v>
+        <v>4640.581161304024</v>
       </c>
       <c r="S14" t="n">
-        <v>4555.113898070877</v>
+        <v>4555.113898070874</v>
       </c>
       <c r="T14" t="n">
-        <v>4353.904749750195</v>
+        <v>4353.904749750192</v>
       </c>
       <c r="U14" t="n">
-        <v>4100.461420469745</v>
+        <v>4100.461420469742</v>
       </c>
       <c r="V14" t="n">
-        <v>3769.398533126174</v>
+        <v>3769.398533126171</v>
       </c>
       <c r="W14" t="n">
-        <v>3416.629877856059</v>
+        <v>3416.629877856057</v>
       </c>
       <c r="X14" t="n">
-        <v>3043.16411959498</v>
+        <v>3043.164119594977</v>
       </c>
       <c r="Y14" t="n">
-        <v>2653.024787619168</v>
+        <v>2653.024787619165</v>
       </c>
     </row>
     <row r="15">
@@ -5343,40 +5343,40 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F15" t="n">
-        <v>313.4646645829334</v>
+        <v>313.4646645829333</v>
       </c>
       <c r="G15" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H15" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="I15" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="J15" t="n">
-        <v>240.4596049779265</v>
+        <v>240.4596049779263</v>
       </c>
       <c r="K15" t="n">
-        <v>240.4596049779265</v>
+        <v>570.9683475412851</v>
       </c>
       <c r="L15" t="n">
-        <v>731.1919378216778</v>
+        <v>1061.700680385036</v>
       </c>
       <c r="M15" t="n">
-        <v>1323.210292073806</v>
+        <v>1061.700680385036</v>
       </c>
       <c r="N15" t="n">
-        <v>1945.306255473142</v>
+        <v>1355.754362358723</v>
       </c>
       <c r="O15" t="n">
-        <v>2492.182730473336</v>
+        <v>1902.630837358917</v>
       </c>
       <c r="P15" t="n">
-        <v>2492.182730473336</v>
+        <v>2322.214355784993</v>
       </c>
       <c r="Q15" t="n">
-        <v>2517.44942553633</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="R15" t="n">
         <v>2552.77562977024</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>868.8644509357071</v>
+        <v>561.9183350635712</v>
       </c>
       <c r="C16" t="n">
-        <v>699.9282680078002</v>
+        <v>561.9183350635708</v>
       </c>
       <c r="D16" t="n">
-        <v>549.8116285954644</v>
+        <v>561.9183350635708</v>
       </c>
       <c r="E16" t="n">
-        <v>401.8985350130713</v>
+        <v>414.0052414811777</v>
       </c>
       <c r="F16" t="n">
-        <v>401.8985350130713</v>
+        <v>267.1152939832673</v>
       </c>
       <c r="G16" t="n">
-        <v>234.6843401876502</v>
+        <v>99.9010991578462</v>
       </c>
       <c r="H16" t="n">
-        <v>92.81162322608056</v>
+        <v>99.9010991578462</v>
       </c>
       <c r="I16" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="J16" t="n">
-        <v>171.7937461156345</v>
+        <v>171.7937461156343</v>
       </c>
       <c r="K16" t="n">
-        <v>431.4224730861982</v>
+        <v>431.4224730861979</v>
       </c>
       <c r="L16" t="n">
-        <v>819.1842911693325</v>
+        <v>819.184291169332</v>
       </c>
       <c r="M16" t="n">
-        <v>1238.413883213792</v>
+        <v>1238.413883213791</v>
       </c>
       <c r="N16" t="n">
-        <v>1653.109749005499</v>
+        <v>1653.109749005498</v>
       </c>
       <c r="O16" t="n">
         <v>2020.132206020528</v>
       </c>
       <c r="P16" t="n">
-        <v>2310.662640856733</v>
+        <v>2310.662640856732</v>
       </c>
       <c r="Q16" t="n">
-        <v>2428.375774410168</v>
+        <v>2428.375774410167</v>
       </c>
       <c r="R16" t="n">
-        <v>2428.375774410168</v>
+        <v>2428.375774410167</v>
       </c>
       <c r="S16" t="n">
-        <v>2428.375774410168</v>
+        <v>2245.205584149097</v>
       </c>
       <c r="T16" t="n">
-        <v>2208.69699212455</v>
+        <v>2025.526801863479</v>
       </c>
       <c r="U16" t="n">
-        <v>1919.620778439277</v>
+        <v>1736.450588178206</v>
       </c>
       <c r="V16" t="n">
-        <v>1664.93629023339</v>
+        <v>1481.766099972319</v>
       </c>
       <c r="W16" t="n">
-        <v>1375.519120196429</v>
+        <v>1192.348929935358</v>
       </c>
       <c r="X16" t="n">
-        <v>1271.305494909477</v>
+        <v>964.359379037341</v>
       </c>
       <c r="Y16" t="n">
-        <v>1050.512915765947</v>
+        <v>743.566799893811</v>
       </c>
     </row>
     <row r="17">
@@ -5504,13 +5504,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111715</v>
@@ -5519,7 +5519,7 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
         <v>2206.55866301478</v>
@@ -5598,19 +5598,19 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2299.457522348532</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
         <v>2516.421633107662</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>950.7540666811335</v>
+        <v>580.8993044876695</v>
       </c>
       <c r="C19" t="n">
-        <v>781.8178837532266</v>
+        <v>411.9631215597626</v>
       </c>
       <c r="D19" t="n">
-        <v>631.7012443408908</v>
+        <v>261.8464821474269</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408908</v>
+        <v>261.8464821474269</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429805</v>
+        <v>114.9565346495165</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5674,10 +5674,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2344.887784772826</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2125.286319795768</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>2125.286319795768</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1870.601831589881</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1581.184661552921</v>
+        <v>1211.329899359457</v>
       </c>
       <c r="X19" t="n">
-        <v>1353.195110654903</v>
+        <v>983.3403484614394</v>
       </c>
       <c r="Y19" t="n">
-        <v>1132.402531511373</v>
+        <v>762.5477693179092</v>
       </c>
     </row>
     <row r="20">
@@ -5735,22 +5735,22 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
@@ -5777,10 +5777,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
@@ -5823,10 +5823,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
         <v>245.2306927803937</v>
@@ -5835,22 +5835,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M21" t="n">
-        <v>1307.627092998424</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>734.6461798836016</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C22" t="n">
-        <v>565.7099969556947</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="D22" t="n">
-        <v>565.7099969556946</v>
+        <v>363.7369613277351</v>
       </c>
       <c r="E22" t="n">
-        <v>565.7099969556946</v>
+        <v>215.8238677453419</v>
       </c>
       <c r="F22" t="n">
-        <v>418.8200494577844</v>
+        <v>215.8238677453419</v>
       </c>
       <c r="G22" t="n">
-        <v>251.6239501726641</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5947,13 +5947,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138413</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y22" t="n">
-        <v>916.2946447138413</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="23">
@@ -5978,10 +5978,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>175.8744207939072</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>175.8744207939072</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L24" t="n">
-        <v>671.2000270096659</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M24" t="n">
-        <v>1268.578514636218</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N24" t="n">
-        <v>1896.176478190825</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>695.5020655703109</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C25" t="n">
-        <v>526.5658826424041</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D25" t="n">
-        <v>376.4492432300683</v>
+        <v>261.8464821474267</v>
       </c>
       <c r="E25" t="n">
-        <v>228.5361496476751</v>
+        <v>113.9333885650336</v>
       </c>
       <c r="F25" t="n">
-        <v>228.5361496476751</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6148,10 +6148,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6166,31 +6166,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614389</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179088</v>
       </c>
     </row>
     <row r="26">
@@ -6309,13 +6309,13 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M27" t="n">
-        <v>1072.713683962606</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O27" t="n">
         <v>1859.536823237711</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>642.8692823226941</v>
+        <v>513.8536007400704</v>
       </c>
       <c r="C28" t="n">
-        <v>473.9330993947872</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D28" t="n">
-        <v>323.8164599824514</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E28" t="n">
-        <v>175.9033664000583</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6385,19 +6385,19 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
@@ -6415,19 +6415,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703102</v>
       </c>
     </row>
     <row r="29">
@@ -6452,7 +6452,7 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6464,25 +6464,25 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6540,16 +6540,16 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M30" t="n">
-        <v>1074.481071167373</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
         <v>1307.627092998424</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>559.0424953278208</v>
+        <v>513.8536007400711</v>
       </c>
       <c r="C31" t="n">
-        <v>559.0424953278208</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D31" t="n">
-        <v>408.925855915485</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E31" t="n">
-        <v>261.0127623330919</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6622,13 +6622,13 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797742</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N31" t="n">
         <v>1665.560112570817</v>
@@ -6637,7 +6637,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q31" t="n">
         <v>2446.96308358026</v>
@@ -6658,13 +6658,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1189.473090199608</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>961.4835393015906</v>
+        <v>916.294644713841</v>
       </c>
       <c r="Y31" t="n">
-        <v>740.6909601580604</v>
+        <v>695.5020655703108</v>
       </c>
     </row>
     <row r="32">
@@ -6686,7 +6686,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,13 +6695,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6774,22 +6774,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>579.1554649516142</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O33" t="n">
         <v>1859.536823237711</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>695.5020655703112</v>
+        <v>513.8536007400709</v>
       </c>
       <c r="C34" t="n">
-        <v>526.5658826424043</v>
+        <v>344.917417812164</v>
       </c>
       <c r="D34" t="n">
-        <v>526.5658826424042</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="E34" t="n">
-        <v>526.5658826424042</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="F34" t="n">
-        <v>379.675935144494</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6880,7 +6880,7 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S34" t="n">
         <v>2197.062545487567</v>
@@ -6895,13 +6895,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138413</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703112</v>
+        <v>695.5020655703106</v>
       </c>
     </row>
     <row r="35">
@@ -6923,22 +6923,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6950,7 +6950,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637306</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2104.342122433612</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>695.5020655703109</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>695.5020655703109</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>545.3854261579752</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
         <v>93.81666304797187</v>
@@ -7105,40 +7105,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7163,19 +7163,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7187,7 +7187,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7248,25 +7248,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>214.9229991561138</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>710.2486053718725</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M39" t="n">
-        <v>1307.627092998424</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P39" t="n">
         <v>2283.159972732779</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>700.7543264856228</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C40" t="n">
-        <v>700.7543264856228</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D40" t="n">
-        <v>550.637687073287</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>94.65038286230612</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>94.65038286230612</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7336,7 +7336,7 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y40" t="n">
-        <v>882.4027913158625</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="41">
@@ -7400,31 +7400,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>506.2737913123336</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L42" t="n">
-        <v>506.2737913123336</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M42" t="n">
-        <v>1103.652278938886</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N42" t="n">
-        <v>1731.250242493492</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O42" t="n">
-        <v>2283.159972732779</v>
+        <v>1872.470231673185</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2296.093381168253</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2529.355041543135</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>741.8431516380888</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C43" t="n">
-        <v>572.9069687101819</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D43" t="n">
-        <v>422.790329297846</v>
+        <v>194.8007783998289</v>
       </c>
       <c r="E43" t="n">
-        <v>274.8772357154528</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="F43" t="n">
-        <v>274.8772357154529</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G43" t="n">
-        <v>107.6811364303331</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7573,10 +7573,10 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
         <v>1665.560112570817</v>
@@ -7585,7 +7585,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
         <v>2446.96308358026</v>
@@ -7609,10 +7609,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1144.284195611859</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y43" t="n">
-        <v>923.4916164683285</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="44">
@@ -7646,19 +7646,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7725,22 +7725,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M45" t="n">
-        <v>1655.562009178173</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N45" t="n">
-        <v>2283.159972732779</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
         <v>2283.159972732779</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.853600740071</v>
+        <v>513.8536007400709</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121641</v>
+        <v>344.917417812164</v>
       </c>
       <c r="D46" t="n">
-        <v>317.6151975578602</v>
+        <v>344.917417812164</v>
       </c>
       <c r="E46" t="n">
-        <v>317.6151975578602</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>317.6151975578602</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7807,10 +7807,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7822,7 +7822,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q46" t="n">
         <v>2446.96308358026</v>
@@ -7846,10 +7846,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138409</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703107</v>
+        <v>695.5020655703106</v>
       </c>
     </row>
   </sheetData>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>232.5655453070231</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23270,10 +23270,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.2160107437958</v>
       </c>
       <c r="H11" t="n">
-        <v>287.3803615687889</v>
+        <v>109.7298961320129</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23419,13 +23419,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.7092488456592</v>
@@ -23434,7 +23434,7 @@
         <v>141.9405139481857</v>
       </c>
       <c r="I13" t="n">
-        <v>86.83261550597821</v>
+        <v>86.8326155059782</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,16 +23470,16 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>50.40067629295842</v>
+        <v>286.19457132852</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>88.10591832618144</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23495,13 +23495,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>50.29152613729288</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>50.29152613728957</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440902</v>
+        <v>74.78599557196098</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108355</v>
+        <v>67.18075159108359</v>
       </c>
       <c r="S16" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>122.5381663549544</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23902,13 +23902,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>144.59566540674</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>146.3469868924069</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24023,7 +24023,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>44.73700564187249</v>
       </c>
       <c r="H22" t="n">
-        <v>65.33133491134399</v>
+        <v>140.2947128462258</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24373,16 +24373,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>125.5054897610402</v>
       </c>
       <c r="G25" t="n">
-        <v>113.4176828771273</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24598,19 +24598,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>127.7255247667959</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>45.4467738245939</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -24619,7 +24619,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24838,13 +24838,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>146.8157004124983</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24856,7 +24856,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24898,7 +24898,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>44.73700564187169</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25072,28 +25072,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>45.44677382459339</v>
       </c>
       <c r="G34" t="n">
-        <v>104.0840080815008</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25309,22 +25309,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>10.32607348286604</v>
+        <v>46.45968844823054</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -25549,13 +25549,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>80.44045370237463</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>185.0317184880955</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25792,16 +25792,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459295</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>126.5688841976863</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25849,7 +25849,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26026,22 +26026,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>121.5862749664516</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>63.36835372228784</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>902893.6885998053</v>
+        <v>902893.6885998056</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>997311.4314518718</v>
+        <v>997311.4314518712</v>
       </c>
     </row>
     <row r="7">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>431046.9291787488</v>
+        <v>431046.9291787487</v>
       </c>
       <c r="C2" t="n">
         <v>431046.9291787488</v>
@@ -26320,16 +26320,16 @@
         <v>431046.9291787487</v>
       </c>
       <c r="E2" t="n">
-        <v>386954.437971345</v>
+        <v>386954.4379713452</v>
       </c>
       <c r="F2" t="n">
-        <v>421406.8801099661</v>
+        <v>421406.880109966</v>
       </c>
       <c r="G2" t="n">
-        <v>423751.9648372532</v>
+        <v>423751.9648372533</v>
       </c>
       <c r="H2" t="n">
-        <v>423751.9648372533</v>
+        <v>423751.9648372531</v>
       </c>
       <c r="I2" t="n">
         <v>423751.9648372533</v>
@@ -26338,22 +26338,22 @@
         <v>423751.9648372533</v>
       </c>
       <c r="K2" t="n">
+        <v>423751.9648372531</v>
+      </c>
+      <c r="L2" t="n">
         <v>423751.9648372532</v>
       </c>
-      <c r="L2" t="n">
-        <v>423751.9648372533</v>
-      </c>
       <c r="M2" t="n">
-        <v>423751.9648372533</v>
+        <v>423751.9648372532</v>
       </c>
       <c r="N2" t="n">
-        <v>423751.9648372533</v>
+        <v>423751.9648372531</v>
       </c>
       <c r="O2" t="n">
-        <v>423751.9648372533</v>
+        <v>423751.9648372532</v>
       </c>
       <c r="P2" t="n">
-        <v>423751.9648372533</v>
+        <v>423751.9648372532</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>205265.6758529966</v>
+        <v>205265.6758529971</v>
       </c>
       <c r="F3" t="n">
-        <v>105843.5890320678</v>
+        <v>105843.5890320666</v>
       </c>
       <c r="G3" t="n">
-        <v>11167.23623557874</v>
+        <v>11167.23623557934</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>53609.53605651409</v>
+        <v>53609.53605651423</v>
       </c>
       <c r="N3" t="n">
-        <v>27828.78668214098</v>
+        <v>27828.78668214059</v>
       </c>
       <c r="O3" t="n">
-        <v>3023.297977224584</v>
+        <v>3023.297977224802</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405257</v>
+        <v>93596.74410405252</v>
       </c>
       <c r="C4" t="n">
         <v>93596.74410405254</v>
@@ -26424,7 +26424,7 @@
         <v>93596.74410405257</v>
       </c>
       <c r="E4" t="n">
-        <v>695.9801673478407</v>
+        <v>695.980167347841</v>
       </c>
       <c r="F4" t="n">
         <v>14820.16342064201</v>
@@ -26433,16 +26433,16 @@
         <v>14826.69604186736</v>
       </c>
       <c r="H4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186734</v>
       </c>
       <c r="I4" t="n">
         <v>14826.69604186736</v>
       </c>
       <c r="J4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186735</v>
       </c>
       <c r="K4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186734</v>
       </c>
       <c r="L4" t="n">
         <v>14826.69604186736</v>
@@ -26454,7 +26454,7 @@
         <v>14826.69604186736</v>
       </c>
       <c r="O4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186738</v>
       </c>
       <c r="P4" t="n">
         <v>14826.69604186736</v>
@@ -26476,7 +26476,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>91212.74033452537</v>
+        <v>91212.74033452541</v>
       </c>
       <c r="F5" t="n">
         <v>100142.1285138384</v>
@@ -26528,40 +26528,40 @@
         <v>229516.2445133029</v>
       </c>
       <c r="E6" t="n">
-        <v>89780.0416164752</v>
+        <v>89570.07737263002</v>
       </c>
       <c r="F6" t="n">
-        <v>200600.9991434178</v>
+        <v>200555.0941478533</v>
       </c>
       <c r="G6" t="n">
-        <v>296635.5027359</v>
+        <v>296600.7648104637</v>
       </c>
       <c r="H6" t="n">
-        <v>307802.7389714789</v>
+        <v>307768.0010460429</v>
       </c>
       <c r="I6" t="n">
-        <v>307802.7389714788</v>
+        <v>307768.0010460431</v>
       </c>
       <c r="J6" t="n">
-        <v>90271.53657420135</v>
+        <v>90236.7986487656</v>
       </c>
       <c r="K6" t="n">
-        <v>307802.7389714787</v>
+        <v>307768.0010460429</v>
       </c>
       <c r="L6" t="n">
-        <v>307802.7389714788</v>
+        <v>307768.001046043</v>
       </c>
       <c r="M6" t="n">
-        <v>254193.2029149648</v>
+        <v>254158.4649895288</v>
       </c>
       <c r="N6" t="n">
-        <v>279973.9522893378</v>
+        <v>279939.2143639023</v>
       </c>
       <c r="O6" t="n">
-        <v>304779.4409942542</v>
+        <v>304744.7030688181</v>
       </c>
       <c r="P6" t="n">
-        <v>307802.7389714788</v>
+        <v>307768.0010460429</v>
       </c>
     </row>
   </sheetData>
@@ -26747,7 +26747,7 @@
         <v>1265.323284370642</v>
       </c>
       <c r="F3" t="n">
-        <v>1358.041048716386</v>
+        <v>1358.041048716385</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26787,19 +26787,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1046.524551566536</v>
+        <v>1046.524551566537</v>
       </c>
       <c r="F4" t="n">
-        <v>1160.145290326007</v>
+        <v>1160.145290326006</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26966,13 +26966,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>175.5465837773436</v>
+        <v>175.546583777344</v>
       </c>
       <c r="F3" t="n">
-        <v>92.71776434574394</v>
+        <v>92.71776434574303</v>
       </c>
       <c r="G3" t="n">
-        <v>9.93445162528792</v>
+        <v>9.934451625288375</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,13 +27018,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>215.1230961642433</v>
+        <v>215.1230961642439</v>
       </c>
       <c r="F4" t="n">
-        <v>113.6207387594711</v>
+        <v>113.6207387594695</v>
       </c>
       <c r="G4" t="n">
-        <v>12.56299777364143</v>
+        <v>12.56299777364234</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>215.1230961642433</v>
+        <v>215.1230961642439</v>
       </c>
       <c r="N4" t="n">
-        <v>113.6207387594711</v>
+        <v>113.6207387594695</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364143</v>
+        <v>12.56299777364234</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,13 +27264,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>215.1230961642433</v>
+        <v>215.1230961642439</v>
       </c>
       <c r="N4" t="n">
-        <v>113.6207387594711</v>
+        <v>113.6207387594695</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364143</v>
+        <v>12.56299777364234</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,16 +27376,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>358.1123434383878</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>90.00833646635425</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27439,7 +27439,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.167155344068306e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27582,13 +27582,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>29.53065250301984</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>157.2154783432247</v>
       </c>
     </row>
     <row r="5">
@@ -27616,7 +27616,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27628,7 +27628,7 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>3.032130797457228</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>253.193973631873</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27777,10 +27777,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27792,7 +27792,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,16 +27819,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>49.98154897300452</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>164.340480380167</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27853,19 +27853,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>302.0150290037638</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27904,19 +27904,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>57.2383093922877</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,7 +28011,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>49.53418746736922</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28059,22 +28059,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>172.1623007152688</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28974,7 +28974,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>-1.940255363782247e-12</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -29499,7 +29499,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>-6.063298011819521e-13</v>
       </c>
     </row>
     <row r="29">
@@ -29527,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29670,7 +29670,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>-1.940255363782247e-12</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -30183,7 +30183,7 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -30526,7 +30526,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="42">
@@ -31604,7 +31604,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
         <v>508.9565619138796</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.08672677133926</v>
+        <v>5.086726771339261</v>
       </c>
       <c r="H11" t="n">
-        <v>52.09444054697821</v>
+        <v>52.09444054697823</v>
       </c>
       <c r="I11" t="n">
-        <v>196.106033852057</v>
+        <v>196.1060338520571</v>
       </c>
       <c r="J11" t="n">
-        <v>431.7295763089559</v>
+        <v>431.729576308956</v>
       </c>
       <c r="K11" t="n">
-        <v>647.0507205397469</v>
+        <v>647.0507205397471</v>
       </c>
       <c r="L11" t="n">
-        <v>802.723634968121</v>
+        <v>802.7236349681212</v>
       </c>
       <c r="M11" t="n">
-        <v>893.1847121879255</v>
+        <v>893.1847121879258</v>
       </c>
       <c r="N11" t="n">
-        <v>907.6373746269933</v>
+        <v>907.6373746269936</v>
       </c>
       <c r="O11" t="n">
-        <v>857.0562352944884</v>
+        <v>857.0562352944887</v>
       </c>
       <c r="P11" t="n">
-        <v>731.4776681270503</v>
+        <v>731.4776681270506</v>
       </c>
       <c r="Q11" t="n">
-        <v>549.3092656284629</v>
+        <v>549.3092656284631</v>
       </c>
       <c r="R11" t="n">
-        <v>319.5291005501401</v>
+        <v>319.5291005501402</v>
       </c>
       <c r="S11" t="n">
-        <v>115.9137863018935</v>
+        <v>115.9137863018936</v>
       </c>
       <c r="T11" t="n">
-        <v>22.26714644153762</v>
+        <v>22.26714644153763</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4069381417071407</v>
+        <v>0.4069381417071409</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31832,46 +31832,46 @@
         <v>2.721638762608551</v>
       </c>
       <c r="H12" t="n">
-        <v>26.28530068098258</v>
+        <v>26.28530068098259</v>
       </c>
       <c r="I12" t="n">
-        <v>93.70554511612774</v>
+        <v>93.70554511612777</v>
       </c>
       <c r="J12" t="n">
         <v>257.1351780059246</v>
       </c>
       <c r="K12" t="n">
-        <v>439.4849751006974</v>
+        <v>439.4849751006976</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>463.6907139216714</v>
       </c>
       <c r="M12" t="n">
-        <v>689.6011899819997</v>
+        <v>689.6011899819999</v>
       </c>
       <c r="N12" t="n">
-        <v>707.8528815084405</v>
+        <v>707.8528815084408</v>
       </c>
       <c r="O12" t="n">
-        <v>647.547096294851</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>519.7136335370661</v>
+        <v>519.7136335370664</v>
       </c>
       <c r="Q12" t="n">
-        <v>167.6002829359496</v>
+        <v>347.4148006445583</v>
       </c>
       <c r="R12" t="n">
-        <v>168.9803435240643</v>
+        <v>168.9803435240644</v>
       </c>
       <c r="S12" t="n">
-        <v>50.55324631424212</v>
+        <v>50.55324631424214</v>
       </c>
       <c r="T12" t="n">
         <v>10.97011413525113</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1790551817505626</v>
+        <v>0.1790551817505627</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.281730512799518</v>
+        <v>2.281730512799519</v>
       </c>
       <c r="H13" t="n">
-        <v>20.28665855925391</v>
+        <v>20.28665855925392</v>
       </c>
       <c r="I13" t="n">
-        <v>68.61785942128007</v>
+        <v>68.61785942128009</v>
       </c>
       <c r="J13" t="n">
-        <v>161.3183472549259</v>
+        <v>161.318347254926</v>
       </c>
       <c r="K13" t="n">
-        <v>265.0955995779803</v>
+        <v>265.0955995779804</v>
       </c>
       <c r="L13" t="n">
-        <v>339.2310982393029</v>
+        <v>339.231098239303</v>
       </c>
       <c r="M13" t="n">
-        <v>357.6716293836553</v>
+        <v>357.6716293836554</v>
       </c>
       <c r="N13" t="n">
-        <v>349.1669974723119</v>
+        <v>349.1669974723121</v>
       </c>
       <c r="O13" t="n">
-        <v>322.5122364818811</v>
+        <v>322.5122364818812</v>
       </c>
       <c r="P13" t="n">
-        <v>275.9649340207707</v>
+        <v>275.9649340207708</v>
       </c>
       <c r="Q13" t="n">
-        <v>191.0638159399669</v>
+        <v>191.063815939967</v>
       </c>
       <c r="R13" t="n">
-        <v>102.594901057331</v>
+        <v>102.5949010573311</v>
       </c>
       <c r="S13" t="n">
-        <v>39.76433993669704</v>
+        <v>39.76433993669706</v>
       </c>
       <c r="T13" t="n">
-        <v>9.749212191052482</v>
+        <v>9.749212191052486</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1244580279708829</v>
+        <v>0.124458027970883</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377424</v>
       </c>
       <c r="H14" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122281</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>463.3649706874065</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K14" t="n">
-        <v>694.4639760830431</v>
+        <v>694.4639760830429</v>
       </c>
       <c r="L14" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364261</v>
       </c>
       <c r="M14" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293306</v>
       </c>
       <c r="N14" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229606</v>
       </c>
       <c r="O14" t="n">
-        <v>919.8578442086953</v>
+        <v>919.857844208695</v>
       </c>
       <c r="P14" t="n">
-        <v>785.0773883687525</v>
+        <v>785.0773883687522</v>
       </c>
       <c r="Q14" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148605</v>
       </c>
       <c r="R14" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S14" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T14" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U14" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4367569201901939</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.921069425540905</v>
+        <v>2.921069425540904</v>
       </c>
       <c r="H15" t="n">
-        <v>28.21138103088191</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>275.9770021735818</v>
+        <v>275.9770021735817</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848223</v>
       </c>
       <c r="L15" t="n">
-        <v>634.2436048745725</v>
+        <v>634.2436048745723</v>
       </c>
       <c r="M15" t="n">
-        <v>740.1323715504302</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>759.7214730927639</v>
+        <v>428.3656332688754</v>
       </c>
       <c r="O15" t="n">
-        <v>694.9967242426205</v>
+        <v>694.9967242426203</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982452</v>
       </c>
       <c r="Q15" t="n">
-        <v>165.5036882910656</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R15" t="n">
-        <v>181.3625385436714</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.25758340862161</v>
+        <v>54.25758340862159</v>
       </c>
       <c r="T15" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U15" t="n">
         <v>0.1921756201013754</v>
@@ -32145,34 +32145,34 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.448926481291843</v>
+        <v>2.448926481291842</v>
       </c>
       <c r="H16" t="n">
         <v>21.77318271548567</v>
       </c>
       <c r="I16" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284924</v>
       </c>
       <c r="J16" t="n">
-        <v>173.1391022273333</v>
+        <v>173.1391022273332</v>
       </c>
       <c r="K16" t="n">
-        <v>284.5207311900886</v>
+        <v>284.5207311900885</v>
       </c>
       <c r="L16" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M16" t="n">
-        <v>383.8803574265022</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N16" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416873</v>
       </c>
       <c r="O16" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P16" t="n">
-        <v>296.1865264282424</v>
+        <v>296.1865264282423</v>
       </c>
       <c r="Q16" t="n">
         <v>205.0641983561742</v>
@@ -32181,7 +32181,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S16" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851327</v>
       </c>
       <c r="T16" t="n">
         <v>10.46359496551969</v>
@@ -32318,22 +32318,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>263.7590256391499</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>353.130074847795</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
@@ -32555,25 +32555,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>377.6350660745956</v>
+        <v>708.9385480032147</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,16 +32783,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>209.7242506524599</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>209.9499448422525</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32801,16 +32801,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33029,16 +33029,16 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>196.3041720119</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>368.6279838366855</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
@@ -33260,19 +33260,19 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>258.3858318060507</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>366.8427442359106</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
@@ -33418,7 +33418,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K32" t="n">
         <v>699.5441750817575</v>
@@ -33494,7 +33494,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33503,16 +33503,16 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>244.0266243181833</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>303.4297552732313</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
@@ -33673,7 +33673,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
         <v>593.8732233669223</v>
@@ -33731,34 +33731,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>526.2989357561996</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>314.5984986256103</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33913,7 +33913,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33968,13 +33968,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>258.3858318060507</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33983,13 +33983,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>465.217062384076</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>375.599612848529</v>
@@ -34205,13 +34205,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>403.3065760821439</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>138.5543797798742</v>
@@ -34226,13 +34226,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>169.6252075171357</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34445,7 +34445,7 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
@@ -34454,16 +34454,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>730.8697159579444</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>519.7862086120942</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
@@ -35252,7 +35252,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
         <v>370.4021821340054</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>250.6836717822696</v>
+        <v>250.6836717822698</v>
       </c>
       <c r="K11" t="n">
-        <v>426.9608694947663</v>
+        <v>426.9608694947665</v>
       </c>
       <c r="L11" t="n">
-        <v>566.9572199981337</v>
+        <v>566.957219998134</v>
       </c>
       <c r="M11" t="n">
-        <v>662.8384789606528</v>
+        <v>662.8384789606531</v>
       </c>
       <c r="N11" t="n">
-        <v>678.2243110304023</v>
+        <v>678.2243110304028</v>
       </c>
       <c r="O11" t="n">
-        <v>626.9580238728016</v>
+        <v>626.958023872802</v>
       </c>
       <c r="P11" t="n">
-        <v>500.2446723717807</v>
+        <v>500.2446723717811</v>
       </c>
       <c r="Q11" t="n">
-        <v>327.0035757540134</v>
+        <v>327.0035757540136</v>
       </c>
       <c r="R11" t="n">
-        <v>103.9435627360079</v>
+        <v>103.9435627360081</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,28 +35489,28 @@
         <v>130.2975513392579</v>
       </c>
       <c r="K12" t="n">
-        <v>301.6435361263384</v>
+        <v>301.6435361263386</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>325.1363341417972</v>
       </c>
       <c r="M12" t="n">
-        <v>547.4671560599813</v>
+        <v>547.4671560599816</v>
       </c>
       <c r="N12" t="n">
-        <v>576.5111694251073</v>
+        <v>576.5111694251075</v>
       </c>
       <c r="O12" t="n">
-        <v>504.9508518504066</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>385.7392261227359</v>
+        <v>385.7392261227361</v>
       </c>
       <c r="Q12" t="n">
-        <v>27.6185088499281</v>
+        <v>207.4330265585368</v>
       </c>
       <c r="R12" t="n">
-        <v>23.30083956010034</v>
+        <v>23.3008395601004</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>34.32292581552979</v>
+        <v>34.32292581552984</v>
       </c>
       <c r="K13" t="n">
-        <v>136.0823414074449</v>
+        <v>136.082341407445</v>
       </c>
       <c r="L13" t="n">
-        <v>204.3464219580646</v>
+        <v>204.3464219580648</v>
       </c>
       <c r="M13" t="n">
-        <v>218.7458454360502</v>
+        <v>218.7458454360504</v>
       </c>
       <c r="N13" t="n">
-        <v>221.4814530070788</v>
+        <v>221.4814530070789</v>
       </c>
       <c r="O13" t="n">
-        <v>184.0556980300383</v>
+        <v>184.0556980300384</v>
       </c>
       <c r="P13" t="n">
-        <v>138.2369299716231</v>
+        <v>138.2369299716232</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.55881431052109</v>
+        <v>39.55881431052114</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>282.3190661607202</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K14" t="n">
-        <v>474.3741250380626</v>
+        <v>474.3741250380623</v>
       </c>
       <c r="L14" t="n">
-        <v>625.7775560664393</v>
+        <v>625.7775560664388</v>
       </c>
       <c r="M14" t="n">
-        <v>728.2874363020583</v>
+        <v>728.2874363020579</v>
       </c>
       <c r="N14" t="n">
-        <v>744.73230092637</v>
+        <v>744.7323009263696</v>
       </c>
       <c r="O14" t="n">
-        <v>689.7596327870085</v>
+        <v>689.7596327870083</v>
       </c>
       <c r="P14" t="n">
-        <v>553.844392613483</v>
+        <v>553.8443926134826</v>
       </c>
       <c r="Q14" t="n">
-        <v>367.2547334404112</v>
+        <v>367.254733440411</v>
       </c>
       <c r="R14" t="n">
-        <v>127.3573607845842</v>
+        <v>127.357360784584</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>149.1393755069151</v>
+        <v>149.139375506915</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>333.8472147104633</v>
       </c>
       <c r="L15" t="n">
-        <v>495.6892250946983</v>
+        <v>495.6892250946981</v>
       </c>
       <c r="M15" t="n">
-        <v>597.9983376284119</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>628.3797610094306</v>
+        <v>297.0239211855421</v>
       </c>
       <c r="O15" t="n">
-        <v>552.4004797981761</v>
+        <v>552.4004797981759</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>423.821735783915</v>
       </c>
       <c r="Q15" t="n">
-        <v>25.52191420504412</v>
+        <v>232.8901757426736</v>
       </c>
       <c r="R15" t="n">
-        <v>35.68303457970742</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211066046</v>
       </c>
       <c r="K16" t="n">
-        <v>262.2512393642057</v>
+        <v>262.2512393642056</v>
       </c>
       <c r="L16" t="n">
-        <v>391.678604124378</v>
+        <v>391.6786041243779</v>
       </c>
       <c r="M16" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N16" t="n">
-        <v>418.8847129209161</v>
+        <v>418.8847129209159</v>
       </c>
       <c r="O16" t="n">
-        <v>370.729754560636</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P16" t="n">
-        <v>293.4650856931359</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q16" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35966,22 +35966,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>132.4173135558165</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>219.1556674334648</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>37.00975247789211</v>
@@ -36203,25 +36203,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>235.5010321525773</v>
+        <v>566.8045140811964</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36431,16 +36431,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>82.88662398579324</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>71.39556506237828</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36449,16 +36449,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36677,16 +36677,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>57.74979223202579</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>237.2862717533522</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
@@ -36908,19 +36908,19 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>120.5443928316917</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>235.5010321525773</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
@@ -37066,7 +37066,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K32" t="n">
         <v>479.454324036777</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,16 +37151,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>101.892590396165</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>160.8335108287869</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
@@ -37321,7 +37321,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
         <v>371.5675334924728</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>394.9572236728663</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>180.6240912112801</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37479,7 +37479,7 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066253</v>
       </c>
       <c r="Q37" t="n">
         <v>120.4022572998984</v>
@@ -37561,7 +37561,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>120.5443928316917</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37631,13 +37631,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>322.6208179396315</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>235.6178387625075</v>
@@ -37853,13 +37853,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>265.4651371077849</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37874,13 +37874,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>23.94570355317173</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
@@ -38102,16 +38102,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>588.7356820359261</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>388.4444965287609</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>
